--- a/cypress/fixtures/LoginData.xlsx
+++ b/cypress/fixtures/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A48497D-E96F-4CE3-8350-DA4D3A46FD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2DF993-012C-49D8-9301-AF6FF218C128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{45F06385-CBDB-472F-A960-80AFCA21EF83}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -56,13 +56,22 @@
     <t>01216571415kt@gmail.com</t>
   </si>
   <si>
-    <t>nn@123123</t>
-  </si>
-  <si>
     <t>Ai.biet1</t>
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>empty email</t>
+  </si>
+  <si>
+    <t>invalid email</t>
+  </si>
+  <si>
+    <t>invalid password</t>
+  </si>
+  <si>
+    <t>aaiiisaipass</t>
   </si>
 </sst>
 </file>
@@ -428,12 +437,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -444,15 +455,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -462,8 +473,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -471,10 +482,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -482,19 +493,17 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{9CFA45BB-90E7-4A39-8F1E-D57EF063EC77}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{D83EB631-848A-4D3F-BFB3-E9FD2A27E866}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{FCB66BBD-CCF7-4E46-AA70-4EDB01A44975}"/>
+    <hyperlink ref="B4" r:id="rId3" display="nn@123123" xr:uid="{FCB66BBD-CCF7-4E46-AA70-4EDB01A44975}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{75200395-4AA9-40E1-9930-6C4088249FE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>